--- a/Texts/Геймплей/Цели задания.xlsx
+++ b/Texts/Геймплей/Цели задания.xlsx
@@ -1061,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>

--- a/Texts/Геймплей/Цели задания.xlsx
+++ b/Texts/Геймплей/Цели задания.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="211">
   <si>
     <t>Раздел</t>
   </si>
@@ -604,6 +604,60 @@
   </si>
   <si>
     <t>Âòóñåóûóåòû ò [CS:N]Óïñëïàìïí[CR].</t>
+  </si>
+  <si>
+    <t>Search requested!</t>
+  </si>
+  <si>
+    <t>Help! Find Celebi!</t>
+  </si>
+  <si>
+    <t>Reward offered!</t>
+  </si>
+  <si>
+    <t>Search for Rotom!</t>
+  </si>
+  <si>
+    <t>Search for Mewtwo!</t>
+  </si>
+  <si>
+    <t>Find Lucario!</t>
+  </si>
+  <si>
+    <t>Запрошен поиск!</t>
+  </si>
+  <si>
+    <t>На помощь! Найдите Селеби!</t>
+  </si>
+  <si>
+    <t>Предлагается награда!</t>
+  </si>
+  <si>
+    <t>Найдите Ротома!</t>
+  </si>
+  <si>
+    <t>Найдите Мьюту!</t>
+  </si>
+  <si>
+    <t>Найдите Лукарио!</t>
+  </si>
+  <si>
+    <t>Èàðñïšåî ðïéòë!</t>
+  </si>
+  <si>
+    <t>Îà ðïíïþû! Îàêäéóå Òåìåáé!</t>
+  </si>
+  <si>
+    <t>Ðñåäìàãàåóòÿ îàãñàäà!</t>
+  </si>
+  <si>
+    <t>Îàêäéóå Ñïóïíà!</t>
+  </si>
+  <si>
+    <t>Îàêäéóå Íûýóô!</t>
+  </si>
+  <si>
+    <t>Îàêäéóå Ìôëàñéï!</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="B184" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1125,7 @@
     <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -3176,7 +3230,7 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="3">
-        <f t="shared" ref="B132:B183" si="2">B131+1</f>
+        <f t="shared" ref="B132:B195" si="2">B131+1</f>
         <v>2811</v>
       </c>
       <c r="C132" s="9" t="s">
@@ -4004,6 +4058,188 @@
       <c r="E183" s="12" t="s">
         <v>154</v>
       </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B184" s="1">
+        <v>17782</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B185" s="3">
+        <f t="shared" si="2"/>
+        <v>17783</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B186" s="3">
+        <f t="shared" si="2"/>
+        <v>17784</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="3">
+        <f t="shared" si="2"/>
+        <v>17785</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B188" s="3">
+        <f t="shared" si="2"/>
+        <v>17786</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B189" s="3">
+        <f t="shared" si="2"/>
+        <v>17787</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B190" s="3">
+        <f t="shared" si="2"/>
+        <v>17788</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="3">
+        <f t="shared" si="2"/>
+        <v>17789</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="3">
+        <f t="shared" si="2"/>
+        <v>17790</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="3">
+        <f t="shared" si="2"/>
+        <v>17791</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="3">
+        <f t="shared" si="2"/>
+        <v>17792</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="3">
+        <f t="shared" si="2"/>
+        <v>17793</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
